--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83683917883596</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H2">
-        <v>1.83683917883596</v>
+        <v>5.983229</v>
       </c>
       <c r="I2">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J2">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N2">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O2">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P2">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q2">
-        <v>67.83657647780696</v>
+        <v>75.36358708395144</v>
       </c>
       <c r="R2">
-        <v>67.83657647780696</v>
+        <v>678.272283755563</v>
       </c>
       <c r="S2">
-        <v>0.05493343967026182</v>
+        <v>0.05271916182505031</v>
       </c>
       <c r="T2">
-        <v>0.05493343967026182</v>
+        <v>0.05271916182505032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83683917883596</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H3">
-        <v>1.83683917883596</v>
+        <v>5.983229</v>
       </c>
       <c r="I3">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J3">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N3">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O3">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P3">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q3">
-        <v>49.90446971715297</v>
+        <v>55.09065015703511</v>
       </c>
       <c r="R3">
-        <v>49.90446971715297</v>
+        <v>495.815851413316</v>
       </c>
       <c r="S3">
-        <v>0.04041218349779931</v>
+        <v>0.03853761495509335</v>
       </c>
       <c r="T3">
-        <v>0.04041218349779931</v>
+        <v>0.03853761495509336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83683917883596</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H4">
-        <v>1.83683917883596</v>
+        <v>5.983229</v>
       </c>
       <c r="I4">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J4">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N4">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O4">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P4">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q4">
-        <v>15.94334570297509</v>
+        <v>18.35922373457589</v>
       </c>
       <c r="R4">
-        <v>15.94334570297509</v>
+        <v>165.233013611183</v>
       </c>
       <c r="S4">
-        <v>0.01291077564332922</v>
+        <v>0.01284284525850973</v>
       </c>
       <c r="T4">
-        <v>0.01291077564332922</v>
+        <v>0.01284284525850973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83683917883596</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H5">
-        <v>1.83683917883596</v>
+        <v>5.983229</v>
       </c>
       <c r="I5">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J5">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N5">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O5">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P5">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q5">
-        <v>31.71517855630266</v>
+        <v>34.74031949820056</v>
       </c>
       <c r="R5">
-        <v>31.71517855630266</v>
+        <v>312.662875483805</v>
       </c>
       <c r="S5">
-        <v>0.02568266174847739</v>
+        <v>0.02430192877416256</v>
       </c>
       <c r="T5">
-        <v>0.02568266174847739</v>
+        <v>0.02430192877416257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.83683917883596</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H6">
-        <v>1.83683917883596</v>
+        <v>5.983229</v>
       </c>
       <c r="I6">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J6">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N6">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O6">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P6">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q6">
-        <v>8.503778903565795</v>
+        <v>9.713858705918888</v>
       </c>
       <c r="R6">
-        <v>8.503778903565795</v>
+        <v>87.42472835327</v>
       </c>
       <c r="S6">
-        <v>0.006886282439696885</v>
+        <v>0.006795144828928451</v>
       </c>
       <c r="T6">
-        <v>0.006886282439696885</v>
+        <v>0.006795144828928452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.09935475253223</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H7">
-        <v>5.09935475253223</v>
+        <v>15.422326</v>
       </c>
       <c r="I7">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J7">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N7">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O7">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P7">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q7">
-        <v>188.325016497546</v>
+        <v>194.2566143696135</v>
       </c>
       <c r="R7">
-        <v>188.325016497546</v>
+        <v>1748.309529326522</v>
       </c>
       <c r="S7">
-        <v>0.1525038772490757</v>
+        <v>0.1358885143979414</v>
       </c>
       <c r="T7">
-        <v>0.1525038772490757</v>
+        <v>0.1358885143979415</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.09935475253223</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H8">
-        <v>5.09935475253223</v>
+        <v>15.422326</v>
       </c>
       <c r="I8">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J8">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N8">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O8">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P8">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q8">
-        <v>138.5426648978785</v>
+        <v>142.0012448585449</v>
       </c>
       <c r="R8">
-        <v>138.5426648978785</v>
+        <v>1278.011203726904</v>
       </c>
       <c r="S8">
-        <v>0.1121905838867733</v>
+        <v>0.09933426601253688</v>
       </c>
       <c r="T8">
-        <v>0.1121905838867733</v>
+        <v>0.09933426601253689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.09935475253223</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H9">
-        <v>5.09935475253223</v>
+        <v>15.422326</v>
       </c>
       <c r="I9">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J9">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N9">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O9">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P9">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q9">
-        <v>44.26123779287644</v>
+        <v>47.32259680208912</v>
       </c>
       <c r="R9">
-        <v>44.26123779287644</v>
+        <v>425.903371218802</v>
       </c>
       <c r="S9">
-        <v>0.03584234585926578</v>
+        <v>0.03310362119589461</v>
       </c>
       <c r="T9">
-        <v>0.03584234585926578</v>
+        <v>0.03310362119589462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.09935475253223</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H10">
-        <v>5.09935475253223</v>
+        <v>15.422326</v>
       </c>
       <c r="I10">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J10">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N10">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O10">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P10">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q10">
-        <v>88.04632891213681</v>
+        <v>89.54638584707443</v>
       </c>
       <c r="R10">
-        <v>88.04632891213681</v>
+        <v>805.9174726236699</v>
       </c>
       <c r="S10">
-        <v>0.07129911249376275</v>
+        <v>0.06264046854698616</v>
       </c>
       <c r="T10">
-        <v>0.07129911249376275</v>
+        <v>0.06264046854698617</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.09935475253223</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H11">
-        <v>5.09935475253223</v>
+        <v>15.422326</v>
       </c>
       <c r="I11">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J11">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N11">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O11">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P11">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q11">
-        <v>23.60782907182</v>
+        <v>25.03836902793111</v>
       </c>
       <c r="R11">
-        <v>23.60782907182</v>
+        <v>225.34532125138</v>
       </c>
       <c r="S11">
-        <v>0.01911740422936807</v>
+        <v>0.01751511412465557</v>
       </c>
       <c r="T11">
-        <v>0.01911740422936807</v>
+        <v>0.01751511412465557</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.821322590693367</v>
+        <v>0.8411243333333333</v>
       </c>
       <c r="H12">
-        <v>0.821322590693367</v>
+        <v>2.523373</v>
       </c>
       <c r="I12">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="J12">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N12">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O12">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P12">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q12">
-        <v>30.33238477188256</v>
+        <v>31.78391481101455</v>
       </c>
       <c r="R12">
-        <v>30.33238477188256</v>
+        <v>286.055233299131</v>
       </c>
       <c r="S12">
-        <v>0.02456288797926741</v>
+        <v>0.02223383218859961</v>
       </c>
       <c r="T12">
-        <v>0.02456288797926741</v>
+        <v>0.02223383218859962</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.821322590693367</v>
+        <v>0.8411243333333333</v>
       </c>
       <c r="H13">
-        <v>0.821322590693367</v>
+        <v>2.523373</v>
       </c>
       <c r="I13">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="J13">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N13">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O13">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P13">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q13">
-        <v>22.31423895326832</v>
+        <v>23.23398605647689</v>
       </c>
       <c r="R13">
-        <v>22.31423895326832</v>
+        <v>209.105874508292</v>
       </c>
       <c r="S13">
-        <v>0.0180698667735421</v>
+        <v>0.01625289238671606</v>
       </c>
       <c r="T13">
-        <v>0.0180698667735421</v>
+        <v>0.01625289238671607</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.821322590693367</v>
+        <v>0.8411243333333333</v>
       </c>
       <c r="H14">
-        <v>0.821322590693367</v>
+        <v>2.523373</v>
       </c>
       <c r="I14">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="J14">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N14">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O14">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P14">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q14">
-        <v>7.128893017942799</v>
+        <v>7.742837433230111</v>
       </c>
       <c r="R14">
-        <v>7.128893017942799</v>
+        <v>69.685536899071</v>
       </c>
       <c r="S14">
-        <v>0.00577291241466217</v>
+        <v>0.005416354441473236</v>
       </c>
       <c r="T14">
-        <v>0.00577291241466217</v>
+        <v>0.005416354441473237</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.821322590693367</v>
+        <v>0.8411243333333333</v>
       </c>
       <c r="H15">
-        <v>0.821322590693367</v>
+        <v>2.523373</v>
       </c>
       <c r="I15">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="J15">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N15">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O15">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P15">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q15">
-        <v>14.18109593713728</v>
+        <v>14.65141719180944</v>
       </c>
       <c r="R15">
-        <v>14.18109593713728</v>
+        <v>131.862754726285</v>
       </c>
       <c r="S15">
-        <v>0.01148372188823215</v>
+        <v>0.01024911981751742</v>
       </c>
       <c r="T15">
-        <v>0.01148372188823215</v>
+        <v>0.01024911981751742</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.821322590693367</v>
+        <v>0.8411243333333333</v>
       </c>
       <c r="H16">
-        <v>0.821322590693367</v>
+        <v>2.523373</v>
       </c>
       <c r="I16">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="J16">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N16">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O16">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P16">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q16">
-        <v>3.802371922503511</v>
+        <v>4.09673251422111</v>
       </c>
       <c r="R16">
-        <v>3.802371922503511</v>
+        <v>36.87059262799</v>
       </c>
       <c r="S16">
-        <v>0.003079126032798534</v>
+        <v>0.002865791196092891</v>
       </c>
       <c r="T16">
-        <v>0.003079126032798534</v>
+        <v>0.002865791196092891</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.939712386429746</v>
+        <v>1.745373333333333</v>
       </c>
       <c r="H17">
-        <v>0.939712386429746</v>
+        <v>5.23612</v>
       </c>
       <c r="I17">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="J17">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N17">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O17">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P17">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q17">
-        <v>34.70465564088281</v>
+        <v>65.95314764018222</v>
       </c>
       <c r="R17">
-        <v>34.70465564088281</v>
+        <v>593.5783287616399</v>
       </c>
       <c r="S17">
-        <v>0.02810351297060738</v>
+        <v>0.04613626816145303</v>
       </c>
       <c r="T17">
-        <v>0.02810351297060738</v>
+        <v>0.04613626816145304</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.939712386429746</v>
+        <v>1.745373333333333</v>
       </c>
       <c r="H18">
-        <v>0.939712386429746</v>
+        <v>5.23612</v>
       </c>
       <c r="I18">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="J18">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N18">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O18">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P18">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q18">
-        <v>25.53073174382942</v>
+        <v>48.21163540627555</v>
       </c>
       <c r="R18">
-        <v>25.53073174382942</v>
+        <v>433.90471865648</v>
       </c>
       <c r="S18">
-        <v>0.02067455323966892</v>
+        <v>0.03372553121711761</v>
       </c>
       <c r="T18">
-        <v>0.02067455323966892</v>
+        <v>0.03372553121711762</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.939712386429746</v>
+        <v>1.745373333333333</v>
       </c>
       <c r="H19">
-        <v>0.939712386429746</v>
+        <v>5.23612</v>
       </c>
       <c r="I19">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="J19">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N19">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O19">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P19">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q19">
-        <v>8.156489479776686</v>
+        <v>16.06675903280444</v>
       </c>
       <c r="R19">
-        <v>8.156489479776686</v>
+        <v>144.60083129524</v>
       </c>
       <c r="S19">
-        <v>0.006605050638205837</v>
+        <v>0.01123919524306824</v>
       </c>
       <c r="T19">
-        <v>0.006605050638205837</v>
+        <v>0.01123919524306825</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.939712386429746</v>
+        <v>1.745373333333333</v>
       </c>
       <c r="H20">
-        <v>0.939712386429746</v>
+        <v>5.23612</v>
       </c>
       <c r="I20">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="J20">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N20">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O20">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P20">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q20">
-        <v>16.22523434309339</v>
+        <v>30.40239337837777</v>
       </c>
       <c r="R20">
-        <v>16.22523434309339</v>
+        <v>273.6215404054</v>
       </c>
       <c r="S20">
-        <v>0.0131390464879043</v>
+        <v>0.02126741518550737</v>
       </c>
       <c r="T20">
-        <v>0.0131390464879043</v>
+        <v>0.02126741518550737</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.939712386429746</v>
+        <v>1.745373333333333</v>
       </c>
       <c r="H21">
-        <v>0.939712386429746</v>
+        <v>5.23612</v>
       </c>
       <c r="I21">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="J21">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N21">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O21">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P21">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q21">
-        <v>4.35046598483644</v>
+        <v>8.500916452844443</v>
       </c>
       <c r="R21">
-        <v>4.35046598483644</v>
+        <v>76.50824807559999</v>
       </c>
       <c r="S21">
-        <v>0.003522967595419915</v>
+        <v>0.005946654179816425</v>
       </c>
       <c r="T21">
-        <v>0.003522967595419915</v>
+        <v>0.005946654179816426</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.34615617910361</v>
+        <v>5.030228666666667</v>
       </c>
       <c r="H22">
-        <v>4.34615617910361</v>
+        <v>15.090686</v>
       </c>
       <c r="I22">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="J22">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N22">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O22">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P22">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q22">
-        <v>160.5085297750964</v>
+        <v>190.0793415257158</v>
       </c>
       <c r="R22">
-        <v>160.5085297750964</v>
+        <v>1710.714073731442</v>
       </c>
       <c r="S22">
-        <v>0.1299783405173357</v>
+        <v>0.132966382748349</v>
       </c>
       <c r="T22">
-        <v>0.1299783405173357</v>
+        <v>0.132966382748349</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.34615617910361</v>
+        <v>5.030228666666667</v>
       </c>
       <c r="H23">
-        <v>4.34615617910361</v>
+        <v>15.090686</v>
       </c>
       <c r="I23">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="J23">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N23">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O23">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P23">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q23">
-        <v>118.0792646003677</v>
+        <v>138.9476657262605</v>
       </c>
       <c r="R23">
-        <v>118.0792646003677</v>
+        <v>1250.528991536344</v>
       </c>
       <c r="S23">
-        <v>0.09561950934176738</v>
+        <v>0.09719819289487631</v>
       </c>
       <c r="T23">
-        <v>0.09561950934176738</v>
+        <v>0.09719819289487633</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.34615617910361</v>
+        <v>5.030228666666667</v>
       </c>
       <c r="H24">
-        <v>4.34615617910361</v>
+        <v>15.090686</v>
       </c>
       <c r="I24">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="J24">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N24">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O24">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P24">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q24">
-        <v>37.72364572846382</v>
+        <v>46.30497689161356</v>
       </c>
       <c r="R24">
-        <v>37.72364572846382</v>
+        <v>416.744792024522</v>
       </c>
       <c r="S24">
-        <v>0.03054826355284684</v>
+        <v>0.03239176457106342</v>
       </c>
       <c r="T24">
-        <v>0.03054826355284684</v>
+        <v>0.03239176457106342</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.34615617910361</v>
+        <v>5.030228666666667</v>
       </c>
       <c r="H25">
-        <v>4.34615617910361</v>
+        <v>15.090686</v>
       </c>
       <c r="I25">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="J25">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N25">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O25">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P25">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q25">
-        <v>75.04147387644485</v>
+        <v>87.62079022665222</v>
       </c>
       <c r="R25">
-        <v>75.04147387644485</v>
+        <v>788.58711203987</v>
       </c>
       <c r="S25">
-        <v>0.06076789973780349</v>
+        <v>0.06129345480930985</v>
       </c>
       <c r="T25">
-        <v>0.06076789973780349</v>
+        <v>0.06129345480930986</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.34615617910361</v>
+        <v>5.030228666666667</v>
       </c>
       <c r="H26">
-        <v>4.34615617910361</v>
+        <v>15.090686</v>
       </c>
       <c r="I26">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="J26">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N26">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O26">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P26">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q26">
-        <v>20.12084218003498</v>
+        <v>24.49994669757556</v>
       </c>
       <c r="R26">
-        <v>20.12084218003498</v>
+        <v>220.49952027818</v>
       </c>
       <c r="S26">
-        <v>0.01629367411212766</v>
+        <v>0.01713847103928046</v>
       </c>
       <c r="T26">
-        <v>0.01629367411212766</v>
+        <v>0.01713847103928046</v>
       </c>
     </row>
   </sheetData>
